--- a/src/test/resources/TestData/output/SmartScrappers_Team17_Hypertension_To_Add.xlsx
+++ b/src/test/resources/TestData/output/SmartScrappers_Team17_Hypertension_To_Add.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t xml:space="preserve">2 cups chopped papaya
@@ -92,6 +98,12 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/cabbage-and-dal-parathas-22309r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Dinner</t>
+  </si>
+  <si>
+    <t>Vegetarian, Veg</t>
   </si>
   <si>
     <t xml:space="preserve">1 cup whole wheat flour (gehun ka atta)
@@ -190,6 +202,9 @@
     <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
   </si>
   <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup quinoa , washed and drained
 2 tsp oil
 1/2 tsp mustard seeds ( rai / sarson)
@@ -238,6 +253,9 @@
     <t>https://www.tarladalal.com/oats-and-vegetable-broth-7440r</t>
   </si>
   <si>
+    <t>Vegan, Veg</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup quick cooking rolled oats
 2 tbsp finely chopped tomatoes
 2 tbsp finely chopped capsicum
@@ -301,9 +319,6 @@
 Use the basic vegetable stock as required.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>7457</t>
   </si>
   <si>
@@ -311,6 +326,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/nutritious-thalipeeth-7457r</t>
+  </si>
+  <si>
+    <t>Breakfast, Lunch, Snack</t>
   </si>
   <si>
     <t xml:space="preserve">3 tbsp bajra (black millet) flour
@@ -497,6 +515,9 @@
     <t>https://www.tarladalal.com/cabbage-and-onion-roti-low-salt-recipe-42013r</t>
   </si>
   <si>
+    <t>Lunch</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/4 cup finely chopped cabbage
 1/4 cup finely chopped onions
 1 cup whole wheat flour (gehun ka atta)
@@ -529,6 +550,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/bengali-style-veg-chops-healthy-low-salt-snack-42022r</t>
+  </si>
+  <si>
+    <t>Snack</t>
   </si>
   <si>
     <t xml:space="preserve">1/4 cup finely chopped onions
@@ -634,6 +658,9 @@
     <t>https://www.tarladalal.com/cabbage-nachni-koftas-in-makhani-gravy-low-salt-recipe-22322r</t>
   </si>
   <si>
+    <t>Dinner</t>
+  </si>
+  <si>
     <t xml:space="preserve">1/2 cup finely chopped cabbage
 2 tbsp ragi (nachni / red millet) flour
 1/4 cup boiled and mashed potatoes
@@ -723,6 +750,9 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/carrot-cabbage-and-buckwheat-pancake-low-salt-recipe-22306r</t>
+  </si>
+  <si>
+    <t>Breakfast, Snack</t>
   </si>
   <si>
     <t xml:space="preserve">1/4 cup grated carrot
@@ -994,645 +1024,729 @@
       <c r="C2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F2" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F3" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F4" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
+        <v>42</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F5" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>51</v>
+      </c>
       <c r="F6" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
       <c r="F7" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
+        <v>64</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F8" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
+        <v>71</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F9" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
+        <v>77</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F10" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
+        <v>82</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F11" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
+        <v>88</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F12" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F13" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+        <v>101</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="F14" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
+        <v>108</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="F15" t="s" s="0">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
+        <v>114</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F16" t="s" s="0">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
+        <v>122</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F17" t="s" s="0">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
+        <v>128</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F18" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>51</v>
+      </c>
       <c r="F19" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
+        <v>141</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F20" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>138</v>
-      </c>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
+        <v>148</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F21" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
+        <v>155</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="F22" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
